--- a/rnaSample/rnaSample_hbrown_12.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_12.12.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -298,7 +298,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H27"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,7 +380,8 @@
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="b">
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -424,7 +425,8 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="b">
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -450,7 +452,8 @@
       <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -476,7 +479,8 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -502,7 +506,8 @@
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -528,7 +533,8 @@
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="b">
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -554,7 +560,8 @@
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="b">
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -580,7 +587,8 @@
       <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="b">
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -606,7 +614,8 @@
       <c r="G10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="6" t="b">
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -632,7 +641,8 @@
       <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6" t="b">
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -658,7 +668,8 @@
       <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="6" t="b">
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -684,7 +695,8 @@
       <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="6" t="b">
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -710,7 +722,8 @@
       <c r="G14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="6" t="b">
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -736,7 +749,8 @@
       <c r="G15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="6" t="b">
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -762,7 +776,8 @@
       <c r="G16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="6" t="b">
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -788,7 +803,8 @@
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="6" t="b">
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -814,7 +830,8 @@
       <c r="G18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="6" t="b">
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -840,7 +857,8 @@
       <c r="G19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="6" t="b">
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -866,7 +884,8 @@
       <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="6" t="b">
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -892,7 +911,8 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="6" t="b">
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -918,7 +938,8 @@
       <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="6" t="b">
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -944,7 +965,8 @@
       <c r="G23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="6" t="b">
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -970,7 +992,8 @@
       <c r="G24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="6" t="b">
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -996,7 +1019,8 @@
       <c r="G25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="6" t="b">
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1022,7 +1046,8 @@
       <c r="G26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="6" t="b">
+      <c r="H26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1048,7 +1073,8 @@
       <c r="G27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="6" t="b">
+      <c r="H27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_12.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_12.12.19.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">5c 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
   <si>
     <t xml:space="preserve">5c 2</t>
@@ -156,7 +156,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -196,13 +196,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -249,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,11 +263,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,10 +287,10 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -377,11 +366,10 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -422,11 +410,10 @@
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -449,11 +436,10 @@
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -476,11 +462,10 @@
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -503,11 +488,10 @@
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -530,11 +514,10 @@
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -557,11 +540,10 @@
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -584,11 +566,10 @@
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -611,11 +592,10 @@
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -638,11 +618,10 @@
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -665,11 +644,10 @@
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -692,11 +670,10 @@
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -719,11 +696,10 @@
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -746,11 +722,10 @@
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -773,11 +748,10 @@
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -800,11 +774,10 @@
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,11 +800,10 @@
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -854,11 +826,10 @@
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -881,11 +852,10 @@
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -908,11 +878,10 @@
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -935,11 +904,10 @@
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -962,11 +930,10 @@
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -989,11 +956,10 @@
       <c r="F24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1016,11 +982,10 @@
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1043,11 +1008,10 @@
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1070,21 +1034,14 @@
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G27" type="list">
-      <formula1>"DirectZol,Trizol"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/rnaSample/rnaSample_hbrown_12.12.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_12.12.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3E3E8E-A5A7-6E4C-BA20-ACBE6A34CFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F2DD4-2E14-474C-8F44-945F8CC10EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9440" yWindow="900" windowWidth="16380" windowHeight="14740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -61,15 +61,15 @@
   </si>
   <si>
     <t>TRIzol</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -127,7 +127,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F27"/>
+      <selection activeCell="H2" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,8 +519,8 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <v>0</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -563,8 +563,8 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -589,8 +589,8 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -615,8 +615,8 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -641,8 +641,8 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -667,8 +667,8 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -693,8 +693,8 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <v>0</v>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -719,8 +719,8 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -745,8 +745,8 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -771,8 +771,8 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <v>0</v>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -797,8 +797,8 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="b">
-        <v>0</v>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -823,8 +823,8 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <v>0</v>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -849,8 +849,8 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -875,8 +875,8 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -901,8 +901,8 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -927,8 +927,8 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -953,8 +953,8 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="5" t="b">
-        <v>0</v>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -979,8 +979,8 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <v>0</v>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1005,8 +1005,8 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5" t="b">
-        <v>0</v>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1031,8 +1031,8 @@
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="b">
-        <v>0</v>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1057,8 +1057,8 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="5" t="b">
-        <v>0</v>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1083,8 +1083,8 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5" t="b">
-        <v>0</v>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1109,8 +1109,8 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="5" t="b">
-        <v>0</v>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1135,8 +1135,8 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="5" t="b">
-        <v>0</v>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1161,8 +1161,8 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="5" t="b">
-        <v>0</v>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1187,8 +1187,8 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="5" t="b">
-        <v>0</v>
+      <c r="H27" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
